--- a/第七组/小组计划实施表第七组.xlsx
+++ b/第七组/小组计划实施表第七组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14505" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="14475" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>小组计划实施表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,31 +57,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期：2017.9.6 二 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善登录模块界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟崇尧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责登录模块界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责APP界面整体布局构思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本界面设计好了，待改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本构思好了，待加强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善购买意向模块界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.6 二 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：由于今天开始做APP界面设计这一部分，刚开始可能没考虑到太多的的细节，以后会加强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责注册模块界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责APP界面首页的模板设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本模板设计好了，待后续完善加强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：个人习惯性的会按照PC端的界面设计来做，所以会导致移动端的用户体检不好，在这方面会多注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.11 三 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责APP界面作品的模板设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.13 三 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完善</t>
+  </si>
+  <si>
+    <t>基本完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善界面总体风格设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没确定最终版本，正在完善中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.13 三 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同完成关于服装品牌、设计作品、布料辅料共同联系关系的界面设计，增加查看购买意向功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看购买意向功能已完善，其他界面正在更加完善中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：经过老师的讲解，我们更加懂得了服装品牌、设计作品、布料辅料之间的联系。我们的进展也越来越顺利啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.18 四 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把服装品牌界面的分类更加细节化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于之前做的品牌服装分类没有细化，所以需要现在细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.19 四 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善布料辅料模块界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 四 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>薛洁鹏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>负责账号管理模块的界面设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责资讯信息管理模块的界面设计、负责设计师管理模块的界面设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.6 二 周三 上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责APP首页总体的界面设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责面料辅料管理模块的界面设计、品牌服装管理模块的界面设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责设计作品管理模块的界面设计</t>
+    <t>负责作品管理用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责咨询管理和设计师管理用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责账号管理用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责服装管理用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责品牌服装管理用例规约描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,15 +216,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成80%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成80%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成60%</t>
+    <t>把整体界面设计做收尾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +304,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -198,20 +313,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -551,135 +681,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="90.875" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="41.125" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="4" max="4" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -694,52 +826,390 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+    <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="19">
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A56:D56"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组.xlsx
+++ b/第七组/小组计划实施表第七组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>把整体界面设计做收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成、完成一半</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,16 +341,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -684,7 +696,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:D46"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -696,18 +708,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -746,12 +758,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -760,12 +772,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -806,12 +818,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -826,12 +838,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -860,12 +872,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -874,12 +886,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -944,12 +956,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -958,12 +970,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -986,7 +998,7 @@
       <c r="B30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -996,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1004,7 +1016,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="13"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1012,24 +1024,24 @@
         <v>8</v>
       </c>
       <c r="B33" s="13"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1060,20 +1072,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1102,20 +1114,20 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1138,7 +1150,9 @@
       <c r="B51" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1148,7 +1162,9 @@
       <c r="B52" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1158,7 +1174,9 @@
       <c r="B53" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1168,7 +1186,9 @@
       <c r="B54" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1178,19 +1198,24 @@
       <c r="B55" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A1:D1"/>
@@ -1207,9 +1232,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组.xlsx
+++ b/第七组/小组计划实施表第七组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,7 +228,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完成、完成一半</t>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 四 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计并修改数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计并修改数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习React Native框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,11 +374,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -693,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -708,10 +736,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -758,12 +786,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -818,12 +846,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -872,12 +900,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -998,7 +1026,7 @@
       <c r="B30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1008,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1016,7 +1044,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="13"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1024,7 +1052,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="13"/>
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -1072,12 +1100,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
@@ -1114,12 +1142,12 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
@@ -1151,7 +1179,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D51" s="1"/>
     </row>
@@ -1199,7 +1227,7 @@
         <v>47</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D55" s="1"/>
     </row>
@@ -1211,13 +1239,98 @@
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
     </row>
+    <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A56:D56"/>
+  <mergeCells count="21">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A6:D6"/>
@@ -1226,12 +1339,19 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A66:D66"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A56:D56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组.xlsx
+++ b/第七组/小组计划实施表第七组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,99 +164,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>由于之前做的品牌服装分类没有细化，所以需要现在细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.19 四 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善布料辅料模块界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 四 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛洁鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责作品管理用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责咨询管理和设计师管理用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责账号管理用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责服装管理用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责品牌服装管理用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把整体界面设计做收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 四 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计并修改数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计并修改数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>把服装品牌界面的分类更加细节化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由于之前做的品牌服装分类没有细化，所以需要现在细化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.19 四 周二 上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善布料辅料模块界面设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.20 四 周三 上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛洁鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责作品管理用例规约描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责咨询管理和设计师管理用例规约描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责账号管理用例规约描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责服装管理用例规约描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责品牌服装管理用例规约描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把整体界面设计做收尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.20 四 周三 下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计并修改数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计并修改数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习React Native框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改了一部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习中</t>
+    <t>日期：2017.9.25 五 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解并学习React Native框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解并学习React Native框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解并学习React Native的语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解到了React Native的基本语法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,16 +388,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -721,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -736,10 +752,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -786,12 +802,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -846,12 +862,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -900,12 +916,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -952,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>29</v>
@@ -984,12 +1000,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1023,10 +1039,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1035,33 +1051,33 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
@@ -1090,26 +1106,26 @@
         <v>6</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1134,24 +1150,24 @@
         <v>6</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1176,10 +1192,10 @@
         <v>5</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="1"/>
     </row>
@@ -1188,10 +1204,10 @@
         <v>6</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="1"/>
     </row>
@@ -1200,22 +1216,22 @@
         <v>7</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D54" s="1"/>
     </row>
@@ -1224,24 +1240,24 @@
         <v>8</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -1266,10 +1282,10 @@
         <v>5</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D61" s="1"/>
     </row>
@@ -1278,10 +1294,10 @@
         <v>6</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D62" s="1"/>
     </row>
@@ -1290,22 +1306,22 @@
         <v>7</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D64" s="1"/>
     </row>
@@ -1314,23 +1330,65 @@
         <v>8</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+    </row>
+    <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="10" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A6:D6"/>
@@ -1339,6 +1397,8 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A72:D72"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A26:D26"/>

--- a/第七组/小组计划实施表第七组.xlsx
+++ b/第七组/小组计划实施表第七组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="70">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,43 +236,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>修改了一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把服装品牌界面的分类更加细节化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.25 五 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解并学习React Native框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解并学习React Native框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解并学习React Native的语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解到了React Native的基本语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.26 五 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解并学习关于react native的基本demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>设计并修改数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改了一部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把服装品牌界面的分类更加细节化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.25 五 周一 下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解并学习React Native框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解并学习React Native框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解并学习React Native的语法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解到了React Native的基本语法</t>
+    <t>在不断修改中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在不断修改中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计并修改数据库都是在他们空余时间完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +384,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -385,6 +409,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -396,8 +426,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -737,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -752,18 +782,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -802,12 +832,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -816,12 +846,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -862,12 +892,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -882,12 +912,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -916,12 +946,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -930,12 +960,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1000,12 +1030,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1014,12 +1044,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1039,10 +1069,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1051,41 +1081,41 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1106,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>37</v>
@@ -1116,20 +1146,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1153,25 +1183,25 @@
         <v>48</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1248,20 +1278,20 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1285,7 +1315,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" s="1"/>
     </row>
@@ -1294,10 +1324,10 @@
         <v>6</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="1"/>
     </row>
@@ -1306,10 +1336,10 @@
         <v>7</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D63" s="1"/>
     </row>
@@ -1318,10 +1348,10 @@
         <v>41</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D64" s="1"/>
     </row>
@@ -1330,28 +1360,28 @@
         <v>8</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="A69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1367,38 +1397,105 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="15"/>
+    </row>
+    <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B73" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
+  <mergeCells count="26">
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="D71:D72"/>
     <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A74:D74"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A26:D26"/>
@@ -1412,6 +1509,14 @@
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组.xlsx
+++ b/第七组/小组计划实施表第七组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>了解并学习关于react native的基本demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设计并修改数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +293,30 @@
   </si>
   <si>
     <t>设计并修改数据库都是在他们空余时间完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计并修改数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟崇尧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较了react native和jQuery mobile之后发现jQuery mobile更加简洁易懂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在菜鸟教程里面学习jQuery mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已根据菜鸟教程学习了五分之一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,9 +431,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,13 +438,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -767,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -782,18 +802,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -832,12 +852,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -846,12 +866,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -892,12 +912,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -912,12 +932,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -946,12 +966,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -960,12 +980,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1044,12 +1064,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1072,7 +1092,7 @@
       <c r="B30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1082,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1090,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1098,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -1110,12 +1130,12 @@
       <c r="D34" s="13"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1146,20 +1166,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1188,20 +1208,20 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1286,12 +1306,12 @@
       <c r="D56" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1348,7 +1368,7 @@
         <v>41</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>54</v>
@@ -1376,12 +1396,12 @@
       <c r="D66" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1402,26 +1422,26 @@
         <v>41</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>69</v>
+      <c r="D71" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="D72" s="12"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -1436,12 +1456,12 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
@@ -1449,53 +1469,84 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+    <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-    </row>
-    <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="12" t="s">
+      <c r="B82" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A26:D26"/>
@@ -1509,14 +1560,11 @@
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A74:D74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组.xlsx
+++ b/第七组/小组计划实施表第七组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,43 +236,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>修改了一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把服装品牌界面的分类更加细节化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.25 五 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解并学习React Native框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解并学习React Native框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解并学习React Native的语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解到了React Native的基本语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.26 五 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>设计并修改数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改了一部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把服装品牌界面的分类更加细节化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.25 五 周一 下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解并学习React Native框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解并学习React Native框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解并学习React Native的语法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解到了React Native的基本语法</t>
+    <t>在不断修改中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在不断修改中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计并修改数据库都是在他们空余时间完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计并修改数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟崇尧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较了react native和jQuery mobile之后发现jQuery mobile更加简洁易懂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在菜鸟教程里面学习jQuery mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已根据菜鸟教程学习了五分之一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +404,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -385,10 +429,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -737,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -752,18 +802,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -802,12 +852,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -816,12 +866,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -862,12 +912,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -882,12 +932,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -916,12 +966,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -930,12 +980,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1000,12 +1050,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1014,12 +1064,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1039,10 +1089,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1051,41 +1101,41 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1106,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>37</v>
@@ -1116,20 +1166,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1153,25 +1203,25 @@
         <v>48</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1248,20 +1298,20 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1285,7 +1335,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" s="1"/>
     </row>
@@ -1294,10 +1344,10 @@
         <v>6</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="1"/>
     </row>
@@ -1306,10 +1356,10 @@
         <v>7</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D63" s="1"/>
     </row>
@@ -1318,10 +1368,10 @@
         <v>41</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D64" s="1"/>
     </row>
@@ -1330,28 +1380,28 @@
         <v>8</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="A69" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1367,28 +1417,128 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="12"/>
+    </row>
+    <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B73" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A6:D6"/>
@@ -1397,8 +1547,6 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A72:D72"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A26:D26"/>
@@ -1412,6 +1560,11 @@
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A74:D74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组.xlsx
+++ b/第七组/小组计划实施表第七组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="79">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,22 @@
   </si>
   <si>
     <t>已根据菜鸟教程学习了五分之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习hbilder开发软件，复习HTML5，CSS3，JavaScript。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习hbilder开发软件，复习HTML5，CSS3，JavaScript。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27 五 周三 上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,6 +447,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,16 +457,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -787,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -802,18 +818,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -852,12 +868,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -866,12 +882,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -912,12 +928,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -932,12 +948,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -966,12 +982,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -980,12 +996,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1064,12 +1080,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1092,7 +1108,7 @@
       <c r="B30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1102,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1110,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1118,7 +1134,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -1130,12 +1146,12 @@
       <c r="D34" s="13"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1166,20 +1182,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1208,20 +1224,20 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1281,7 +1297,7 @@
         <v>45</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D54" s="1"/>
     </row>
@@ -1306,12 +1322,12 @@
       <c r="D56" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1396,12 +1412,12 @@
       <c r="D66" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1427,7 +1443,7 @@
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="15" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1441,7 +1457,7 @@
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="12"/>
+      <c r="D72" s="15"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -1456,12 +1472,12 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
@@ -1470,12 +1486,12 @@
       <c r="D75" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1530,23 +1546,102 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+    </row>
+    <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
+  <mergeCells count="28">
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A74:D74"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A26:D26"/>
@@ -1560,11 +1655,14 @@
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
